--- a/octSmoothTimes.xlsx
+++ b/octSmoothTimes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_UNI\2k20\Group_Project\_OctaveSmoothing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Year_3_GP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A95C096-7A80-4338-982E-4EAFC030A8D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3BD68F-3542-4E31-AE99-432D6A0E8973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17536" windowHeight="10996" xr2:uid="{9080DE8C-45F9-4861-9776-85084858D0E8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{9080DE8C-45F9-4861-9776-85084858D0E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>Average</t>
   </si>
@@ -64,21 +64,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Filtering the signal with third octave method </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- only for center-band values</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -100,12 +85,158 @@
       <t>(subtracted y-intercept of linear model)</t>
     </r>
   </si>
+  <si>
+    <t>Formula gotten from the paper</t>
+  </si>
+  <si>
+    <t>R squared value</t>
+  </si>
+  <si>
+    <t>Filtering the Signal with base 2 third octave smoothing formula gotten from wikipedia</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Filtering the signal with third octave method </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- only for center-band values</t>
+    </r>
+  </si>
+  <si>
+    <t>Plotting the base 2 third octave filtered signal</t>
+  </si>
+  <si>
+    <t>Filtering the Signal with base 10 third octave smoothing formula gotten from wikipedia</t>
+  </si>
+  <si>
+    <t>Plotting the base 10 third octave filtered signal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Centering the base 10 third octave smoothed curve at 0dB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(substracting y-intercept of linear model)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Plotting the base 10 third octave filtered signal centered at 0dB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(subtracted y-intercept of linear model)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Plotting the base 2 third octave filtered signal centered at 0dB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(subtracted y-intercept of linear model)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Centering the base 2 third octave smoothed curve at 0dB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(substracting y-intercept of linear model)</t>
+    </r>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>Smoothing Technique</t>
+  </si>
+  <si>
+    <t>Average time elapsed for the filtering process</t>
+  </si>
+  <si>
+    <t>Standard Deviation for the time elapsed for the filtering process</t>
+  </si>
+  <si>
+    <t>Formula from paper</t>
+  </si>
+  <si>
+    <t>Base 2 1/3 Octave Smoothing</t>
+  </si>
+  <si>
+    <t>Base 10 1/3 Octave Smoothing</t>
+  </si>
+  <si>
+    <t>Average time elapsed for the plotting process</t>
+  </si>
+  <si>
+    <t>Standard Deviation for the time elapsed for the plotting process</t>
+  </si>
+  <si>
+    <t>Average time elapsed for the plotting process for curve centred at 0 dB</t>
+  </si>
+  <si>
+    <t>Standard Deviation for the time elapsed for the plotting process for curve centred at 0 dB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +254,32 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -150,10 +307,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,6 +336,1026 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> time elapsed for the filtering process</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Formula from paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average time elapsed for the filtering process</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.27297500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6227-4C9A-AD6A-9668E998C924}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base 2 1/3 Octave Smoothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average time elapsed for the filtering process</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$69</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.25408999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6227-4C9A-AD6A-9668E998C924}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base 10 1/3 Octave Smoothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average time elapsed for the filtering process</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.25902499999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6227-4C9A-AD6A-9668E998C924}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="503268088"/>
+        <c:axId val="503267448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="503268088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503267448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="503267448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503268088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545305</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>159543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>359568</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>7143</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6458CCD4-1451-4349-B473-ACC1B087624A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,13 +1655,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B1EF2A-8770-46BA-9AE5-9EF120CF8DC5}">
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.1328125" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="6" max="6" width="10.86328125" customWidth="1"/>
+    <col min="10" max="10" width="10.796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
@@ -482,11 +1675,13 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+      <c r="A3" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="1"/>
     </row>
@@ -499,76 +1694,87 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <f>AVERAGE(C6:V6)</f>
-        <v>0.44004500000000002</v>
+        <v>0.27297500000000002</v>
       </c>
       <c r="C6">
-        <v>0.36620000000000003</v>
+        <v>0.25609999999999999</v>
       </c>
       <c r="D6">
-        <v>0.35899999999999999</v>
+        <v>0.26050000000000001</v>
       </c>
       <c r="E6">
-        <v>0.36699999999999999</v>
+        <v>0.36459999999999998</v>
       </c>
       <c r="F6">
-        <v>0.41799999999999998</v>
+        <v>0.26569999999999999</v>
       </c>
       <c r="G6">
-        <v>0.38819999999999999</v>
+        <v>0.25819999999999999</v>
       </c>
       <c r="H6">
-        <v>0.38340000000000002</v>
+        <v>0.2616</v>
       </c>
       <c r="I6">
-        <v>0.35920000000000002</v>
+        <v>0.25330000000000003</v>
       </c>
       <c r="J6">
-        <v>0.52149999999999996</v>
+        <v>0.25319999999999998</v>
       </c>
       <c r="K6">
-        <v>0.42570000000000002</v>
+        <v>0.26390000000000002</v>
       </c>
       <c r="L6">
-        <v>0.3901</v>
+        <v>0.25569999999999998</v>
       </c>
       <c r="M6">
-        <v>0.503</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="N6">
-        <v>0.36070000000000002</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="O6">
-        <v>0.36170000000000002</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="P6">
-        <v>0.50670000000000004</v>
+        <v>0.29649999999999999</v>
       </c>
       <c r="Q6">
-        <v>0.56189999999999996</v>
+        <v>0.27679999999999999</v>
       </c>
       <c r="R6">
-        <v>0.50729999999999997</v>
+        <v>0.25869999999999999</v>
       </c>
       <c r="S6">
-        <v>0.49480000000000002</v>
+        <v>0.25779999999999997</v>
       </c>
       <c r="T6">
-        <v>0.58940000000000003</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="U6">
-        <v>0.36480000000000001</v>
+        <v>0.31280000000000002</v>
       </c>
       <c r="V6">
-        <v>0.57230000000000003</v>
+        <v>0.29110000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="7">
+        <f>STDEV(C6:V6)</f>
+        <v>2.7044113572963862E-2</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
@@ -579,7 +1785,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
         <f>AVERAGE(C11:U11)</f>
         <v>7.431578947368421E-3</v>
       </c>
@@ -648,19 +1854,30 @@
         <v>7.4599999999999996E-3</v>
       </c>
     </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="7">
+        <f>STDEV(C11:V11)</f>
+        <v>5.8525747820038462E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
@@ -672,7 +1889,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
+      <c r="A19" s="6">
         <f>AVERAGE(C19:U19)</f>
         <v>1.3157894736842103E-3</v>
       </c>
@@ -735,10 +1952,1110 @@
       </c>
       <c r="V19">
         <v>1E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A21" s="7">
+        <f>STDEV(C19:V19)</f>
+        <v>6.2660320693990097E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>7</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>9</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>11</v>
+      </c>
+      <c r="N25">
+        <v>12</v>
+      </c>
+      <c r="O25">
+        <v>13</v>
+      </c>
+      <c r="P25">
+        <v>14</v>
+      </c>
+      <c r="Q25">
+        <v>15</v>
+      </c>
+      <c r="R25">
+        <v>16</v>
+      </c>
+      <c r="S25">
+        <v>17</v>
+      </c>
+      <c r="T25">
+        <v>18</v>
+      </c>
+      <c r="U25">
+        <v>19</v>
+      </c>
+      <c r="V25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A26" s="6">
+        <f>AVERAGE(C26:V26)</f>
+        <v>0.25408999999999998</v>
+      </c>
+      <c r="C26">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D26">
+        <v>0.2555</v>
+      </c>
+      <c r="E26">
+        <v>0.25929999999999997</v>
+      </c>
+      <c r="F26">
+        <v>0.24840000000000001</v>
+      </c>
+      <c r="G26">
+        <v>0.25740000000000002</v>
+      </c>
+      <c r="H26">
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.2482</v>
+      </c>
+      <c r="J26">
+        <v>0.25530000000000003</v>
+      </c>
+      <c r="K26">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="L26">
+        <v>0.24260000000000001</v>
+      </c>
+      <c r="M26">
+        <v>0.24859999999999999</v>
+      </c>
+      <c r="N26">
+        <v>0.25469999999999998</v>
+      </c>
+      <c r="O26">
+        <v>0.25769999999999998</v>
+      </c>
+      <c r="P26">
+        <v>0.24909999999999999</v>
+      </c>
+      <c r="Q26">
+        <v>0.24490000000000001</v>
+      </c>
+      <c r="R26">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="S26">
+        <v>0.2442</v>
+      </c>
+      <c r="T26">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="U26">
+        <v>0.2472</v>
+      </c>
+      <c r="V26">
+        <v>0.2505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A28" s="7">
+        <f>STDEV(C26:V26)</f>
+        <v>1.1338843345820275E-2</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="J30">
+        <v>8</v>
+      </c>
+      <c r="K30">
+        <v>9</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="M30">
+        <v>11</v>
+      </c>
+      <c r="N30">
+        <v>12</v>
+      </c>
+      <c r="O30">
+        <v>13</v>
+      </c>
+      <c r="P30">
+        <v>14</v>
+      </c>
+      <c r="Q30">
+        <v>15</v>
+      </c>
+      <c r="R30">
+        <v>16</v>
+      </c>
+      <c r="S30">
+        <v>17</v>
+      </c>
+      <c r="T30">
+        <v>18</v>
+      </c>
+      <c r="U30">
+        <v>19</v>
+      </c>
+      <c r="V30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A31" s="6">
+        <f>AVERAGE(C31:U31)</f>
+        <v>1.0778947368421049E-2</v>
+      </c>
+      <c r="C31">
+        <v>1.03E-2</v>
+      </c>
+      <c r="D31">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="E31">
+        <v>1.04E-2</v>
+      </c>
+      <c r="F31">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="G31">
+        <v>1.01E-2</v>
+      </c>
+      <c r="H31">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="I31">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="J31">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="K31">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="L31">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="M31">
+        <v>1.04E-2</v>
+      </c>
+      <c r="N31">
+        <v>1.04E-2</v>
+      </c>
+      <c r="O31">
+        <v>1.01E-2</v>
+      </c>
+      <c r="P31">
+        <v>1.09E-2</v>
+      </c>
+      <c r="Q31">
+        <v>1.21E-2</v>
+      </c>
+      <c r="R31">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="S31">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="T31">
+        <v>1.09E-2</v>
+      </c>
+      <c r="U31">
+        <v>1.06E-2</v>
+      </c>
+      <c r="V31">
+        <v>1.06E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A33" s="7">
+        <f>STDEV(C31:V31)</f>
+        <v>1.2477769706245791E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>7</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <v>9</v>
+      </c>
+      <c r="L38">
+        <v>10</v>
+      </c>
+      <c r="M38">
+        <v>11</v>
+      </c>
+      <c r="N38">
+        <v>12</v>
+      </c>
+      <c r="O38">
+        <v>13</v>
+      </c>
+      <c r="P38">
+        <v>14</v>
+      </c>
+      <c r="Q38">
+        <v>15</v>
+      </c>
+      <c r="R38">
+        <v>16</v>
+      </c>
+      <c r="S38">
+        <v>17</v>
+      </c>
+      <c r="T38">
+        <v>18</v>
+      </c>
+      <c r="U38">
+        <v>19</v>
+      </c>
+      <c r="V38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A39" s="6">
+        <f>AVERAGE(C39:U39)</f>
+        <v>1.8684210526315791E-3</v>
+      </c>
+      <c r="C39">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D39">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E39">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F39">
+        <v>1.8E-3</v>
+      </c>
+      <c r="G39">
+        <v>1.8E-3</v>
+      </c>
+      <c r="H39">
+        <v>1.8E-3</v>
+      </c>
+      <c r="I39">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="J39">
+        <v>2E-3</v>
+      </c>
+      <c r="K39">
+        <v>1.9E-3</v>
+      </c>
+      <c r="L39">
+        <v>2E-3</v>
+      </c>
+      <c r="M39">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="N39">
+        <v>1.9E-3</v>
+      </c>
+      <c r="O39">
+        <v>2.3E-3</v>
+      </c>
+      <c r="P39">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Q39">
+        <v>2E-3</v>
+      </c>
+      <c r="R39">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="S39">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="T39">
+        <v>1.8E-3</v>
+      </c>
+      <c r="U39">
+        <v>2E-3</v>
+      </c>
+      <c r="V39">
+        <v>1.6999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A41" s="7">
+        <f>STDEV(C39:V39)</f>
+        <v>2.1618705350983242E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A45" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47">
+        <v>7</v>
+      </c>
+      <c r="J47">
+        <v>8</v>
+      </c>
+      <c r="K47">
+        <v>9</v>
+      </c>
+      <c r="L47">
+        <v>10</v>
+      </c>
+      <c r="M47">
+        <v>11</v>
+      </c>
+      <c r="N47">
+        <v>12</v>
+      </c>
+      <c r="O47">
+        <v>13</v>
+      </c>
+      <c r="P47">
+        <v>14</v>
+      </c>
+      <c r="Q47">
+        <v>15</v>
+      </c>
+      <c r="R47">
+        <v>16</v>
+      </c>
+      <c r="S47">
+        <v>17</v>
+      </c>
+      <c r="T47">
+        <v>18</v>
+      </c>
+      <c r="U47">
+        <v>19</v>
+      </c>
+      <c r="V47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A48" s="6">
+        <f>AVERAGE(C48:V48)</f>
+        <v>0.25902499999999995</v>
+      </c>
+      <c r="C48">
+        <v>0.2555</v>
+      </c>
+      <c r="D48">
+        <v>0.26350000000000001</v>
+      </c>
+      <c r="E48">
+        <v>0.24940000000000001</v>
+      </c>
+      <c r="F48">
+        <v>0.25740000000000002</v>
+      </c>
+      <c r="G48">
+        <v>0.25890000000000002</v>
+      </c>
+      <c r="H48">
+        <v>0.26219999999999999</v>
+      </c>
+      <c r="I48">
+        <v>0.26190000000000002</v>
+      </c>
+      <c r="J48">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="K48">
+        <v>0.25130000000000002</v>
+      </c>
+      <c r="L48">
+        <v>0.25080000000000002</v>
+      </c>
+      <c r="M48">
+        <v>0.26290000000000002</v>
+      </c>
+      <c r="N48">
+        <v>0.25219999999999998</v>
+      </c>
+      <c r="O48">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="P48">
+        <v>0.29609999999999997</v>
+      </c>
+      <c r="Q48">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="R48">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="S48">
+        <v>0.2437</v>
+      </c>
+      <c r="T48">
+        <v>0.2535</v>
+      </c>
+      <c r="U48">
+        <v>0.25259999999999999</v>
+      </c>
+      <c r="V48">
+        <v>0.2581</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A50" s="6">
+        <f>STDEV(C48:V48)</f>
+        <v>1.311507268675806E-2</v>
+      </c>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:22" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <v>8</v>
+      </c>
+      <c r="K52">
+        <v>9</v>
+      </c>
+      <c r="L52">
+        <v>10</v>
+      </c>
+      <c r="M52">
+        <v>11</v>
+      </c>
+      <c r="N52">
+        <v>12</v>
+      </c>
+      <c r="O52">
+        <v>13</v>
+      </c>
+      <c r="P52">
+        <v>14</v>
+      </c>
+      <c r="Q52">
+        <v>15</v>
+      </c>
+      <c r="R52">
+        <v>16</v>
+      </c>
+      <c r="S52">
+        <v>17</v>
+      </c>
+      <c r="T52">
+        <v>18</v>
+      </c>
+      <c r="U52">
+        <v>19</v>
+      </c>
+      <c r="V52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A53" s="6">
+        <f>AVERAGE(C53:U53)</f>
+        <v>3.5947368421052638E-3</v>
+      </c>
+      <c r="C53">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D53">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="E53">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="F53">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="G53">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="H53">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="I53">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="J53">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K53">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="L53">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="M53">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="N53">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="O53">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="P53">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="Q53">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="R53">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="S53">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="T53">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="U53">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="V53">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A55" s="6">
+        <f>STDEV(C53:V53)</f>
+        <v>2.9894551519069756E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+      <c r="H60">
+        <v>6</v>
+      </c>
+      <c r="I60">
+        <v>7</v>
+      </c>
+      <c r="J60">
+        <v>8</v>
+      </c>
+      <c r="K60">
+        <v>9</v>
+      </c>
+      <c r="L60">
+        <v>10</v>
+      </c>
+      <c r="M60">
+        <v>11</v>
+      </c>
+      <c r="N60">
+        <v>12</v>
+      </c>
+      <c r="O60">
+        <v>13</v>
+      </c>
+      <c r="P60">
+        <v>14</v>
+      </c>
+      <c r="Q60">
+        <v>15</v>
+      </c>
+      <c r="R60">
+        <v>16</v>
+      </c>
+      <c r="S60">
+        <v>17</v>
+      </c>
+      <c r="T60">
+        <v>18</v>
+      </c>
+      <c r="U60">
+        <v>19</v>
+      </c>
+      <c r="V60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A61" s="6">
+        <f>AVERAGE(C61:U61)</f>
+        <v>1.605263157894737E-3</v>
+      </c>
+      <c r="C61">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D61">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E61">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="F61">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G61">
+        <v>1.5E-3</v>
+      </c>
+      <c r="H61">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="I61">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="J61">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="K61">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="L61">
+        <v>1.5E-3</v>
+      </c>
+      <c r="M61">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="N61">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="O61">
+        <v>1.8E-3</v>
+      </c>
+      <c r="P61">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="Q61">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="R61">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="S61">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="T61">
+        <v>1.5E-3</v>
+      </c>
+      <c r="U61">
+        <v>1.9E-3</v>
+      </c>
+      <c r="V61">
+        <v>1.6999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A63" s="6">
+        <f>STDEV(C61:V61)</f>
+        <v>1.4832396974191327E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="B67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B68" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="7">
+        <f>A6</f>
+        <v>0.27297500000000002</v>
+      </c>
+      <c r="D68" s="7">
+        <f>A8</f>
+        <v>2.7044113572963862E-2</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="7">
+        <f>A11</f>
+        <v>7.431578947368421E-3</v>
+      </c>
+      <c r="H68" s="7">
+        <f>A13</f>
+        <v>5.8525747820038462E-4</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K68" s="7">
+        <f>A19</f>
+        <v>1.3157894736842103E-3</v>
+      </c>
+      <c r="L68" s="7">
+        <f>A21</f>
+        <v>6.2660320693990097E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="57" x14ac:dyDescent="0.45">
+      <c r="B69" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="7">
+        <f>A26</f>
+        <v>0.25408999999999998</v>
+      </c>
+      <c r="D69" s="7">
+        <f>A28</f>
+        <v>1.1338843345820275E-2</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="7">
+        <f>A31</f>
+        <v>1.0778947368421049E-2</v>
+      </c>
+      <c r="H69" s="7">
+        <f>A33</f>
+        <v>1.2477769706245791E-3</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" s="7">
+        <f>A39</f>
+        <v>1.8684210526315791E-3</v>
+      </c>
+      <c r="L69" s="7">
+        <f>A41</f>
+        <v>2.1618705350983242E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B70" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="7">
+        <f>A48</f>
+        <v>0.25902499999999995</v>
+      </c>
+      <c r="D70" s="7">
+        <f>A50</f>
+        <v>1.311507268675806E-2</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="7">
+        <f>A53</f>
+        <v>3.5947368421052638E-3</v>
+      </c>
+      <c r="H70" s="7">
+        <f>A55</f>
+        <v>2.9894551519069756E-4</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K70" s="7">
+        <f>A61</f>
+        <v>1.605263157894737E-3</v>
+      </c>
+      <c r="L70" s="7">
+        <f>A63</f>
+        <v>1.4832396974191327E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/octSmoothTimes.xlsx
+++ b/octSmoothTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Year_3_GP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3BD68F-3542-4E31-AE99-432D6A0E8973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95250417-6542-4BB5-B2EE-D31FC3F33DF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{9080DE8C-45F9-4861-9776-85084858D0E8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
   <si>
     <t>Average</t>
   </si>
@@ -208,9 +208,6 @@
     <t>Standard Deviation for the time elapsed for the filtering process</t>
   </si>
   <si>
-    <t>Formula from paper</t>
-  </si>
-  <si>
     <t>Base 2 1/3 Octave Smoothing</t>
   </si>
   <si>
@@ -228,13 +225,16 @@
   <si>
     <t>Standard Deviation for the time elapsed for the plotting process for curve centred at 0 dB</t>
   </si>
+  <si>
+    <t>R Squared</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -316,8 +316,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -377,7 +377,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> time elapsed for the filtering process</a:t>
+              <a:t> time elapsed for the filtering process for the different smoothing techniques</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -420,7 +420,7 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -428,14 +428,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Formula from paper</c:v>
+                  <c:v>Base 2 1/3 Octave Smoothing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -443,6 +443,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$D$68</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.1338843345820275E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$D$68</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.1338843345820275E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$C$67</c:f>
@@ -461,59 +503,6 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.27297500000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6227-4C9A-AD6A-9668E998C924}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$69</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Base 2 1/3 Octave Smoothing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$67</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average time elapsed for the filtering process</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$69</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
                   <c:v>0.25408999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -527,10 +516,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$70</c:f>
+              <c:f>Sheet1!$B$69</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -549,6 +538,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$D$69</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.311507268675806E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$D$69</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.311507268675806E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$C$67</c:f>
@@ -562,7 +593,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$70</c:f>
+              <c:f>Sheet1!$C$69</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
@@ -774,7 +805,545 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> time elapsed for the plotting process for the different smoothing techniques when the curve is and isn't centred at 0 dB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average time elapsed for the plotting process</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$I$68:$I$69</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>1.2477769706245791E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.9894551519069756E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$I$68:$I$69</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>1.2477769706245791E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.9894551519069756E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$68:$F$69</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Base 2 1/3 Octave Smoothing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Base 10 1/3 Octave Smoothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$68:$G$69</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0778947368421049E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5947368421052638E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6880-4804-B318-72B8A37EEC8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average time elapsed for the plotting process for curve centred at 0 dB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$J$68:$J$69</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>2.1618705350983242E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.4832396974191327E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$J$68:$J$69</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>2.1618705350983242E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.4832396974191327E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$68:$F$69</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Base 2 1/3 Octave Smoothing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Base 10 1/3 Octave Smoothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$68:$H$69</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.8684210526315791E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.605263157894737E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6880-4804-B318-72B8A37EEC8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="533440760"/>
+        <c:axId val="533441400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="533440760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533441400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="533441400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533440760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1317,20 +1886,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>545305</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>159543</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>64293</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>2380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>359568</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>7143</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>92868</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>30955</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1350,6 +2422,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>297654</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3C3B99-3CEA-4BB0-A5FE-0B9C6F7BB785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1655,10 +2763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B1EF2A-8770-46BA-9AE5-9EF120CF8DC5}">
-  <dimension ref="A1:X70"/>
+  <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="106" workbookViewId="0">
+      <selection activeCell="M94" sqref="M94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1667,6 +2775,7 @@
     <col min="2" max="2" width="10.3984375" customWidth="1"/>
     <col min="6" max="6" width="10.86328125" customWidth="1"/>
     <col min="10" max="10" width="10.796875" customWidth="1"/>
+    <col min="12" max="12" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.45">
@@ -2443,7 +3552,7 @@
         <v>8</v>
       </c>
       <c r="B42">
-        <v>0.23499999999999999</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.45">
@@ -2919,7 +4028,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:13" ht="128.25" x14ac:dyDescent="0.45">
       <c r="B67" s="5" t="s">
         <v>19</v>
       </c>
@@ -2933,124 +4042,96 @@
         <v>19</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="I67" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J67" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L67" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K67" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L67" s="5" t="s">
+      <c r="M67" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:13" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B68" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C68" s="7">
-        <f>A6</f>
-        <v>0.27297500000000002</v>
+        <f>A26</f>
+        <v>0.25408999999999998</v>
       </c>
       <c r="D68" s="7">
-        <f>A8</f>
-        <v>2.7044113572963862E-2</v>
+        <f>A28</f>
+        <v>1.1338843345820275E-2</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G68" s="7">
-        <f>A11</f>
-        <v>7.431578947368421E-3</v>
+        <f>A31</f>
+        <v>1.0778947368421049E-2</v>
       </c>
       <c r="H68" s="7">
-        <f>A13</f>
-        <v>5.8525747820038462E-4</v>
-      </c>
-      <c r="J68" s="8" t="s">
+        <v>1.8684210526315791E-3</v>
+      </c>
+      <c r="I68">
+        <v>1.2477769706245791E-3</v>
+      </c>
+      <c r="J68" s="7">
+        <f>A41</f>
+        <v>2.1618705350983242E-4</v>
+      </c>
+      <c r="L68" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K68" s="7">
-        <f>A19</f>
-        <v>1.3157894736842103E-3</v>
-      </c>
-      <c r="L68" s="7">
-        <f>A21</f>
-        <v>6.2660320693990097E-4</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12" ht="57" x14ac:dyDescent="0.45">
+      <c r="M68">
+        <f>B42</f>
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B69" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C69" s="7">
-        <f>A26</f>
-        <v>0.25408999999999998</v>
+        <f>A48</f>
+        <v>0.25902499999999995</v>
       </c>
       <c r="D69" s="7">
-        <f>A28</f>
-        <v>1.1338843345820275E-2</v>
+        <f>A50</f>
+        <v>1.311507268675806E-2</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G69" s="7">
-        <f>A31</f>
-        <v>1.0778947368421049E-2</v>
-      </c>
-      <c r="H69" s="7">
-        <f>A33</f>
-        <v>1.2477769706245791E-3</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K69" s="7">
-        <f>A39</f>
-        <v>1.8684210526315791E-3</v>
-      </c>
-      <c r="L69" s="7">
-        <f>A41</f>
-        <v>2.1618705350983242E-4</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B70" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C70" s="7">
-        <f>A48</f>
-        <v>0.25902499999999995</v>
-      </c>
-      <c r="D70" s="7">
-        <f>A50</f>
-        <v>1.311507268675806E-2</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" s="7">
         <f>A53</f>
         <v>3.5947368421052638E-3</v>
       </c>
-      <c r="H70" s="7">
-        <f>A55</f>
+      <c r="H69" s="7">
+        <v>1.605263157894737E-3</v>
+      </c>
+      <c r="I69">
         <v>2.9894551519069756E-4</v>
       </c>
-      <c r="J70" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K70" s="7">
-        <f>A61</f>
-        <v>1.605263157894737E-3</v>
-      </c>
-      <c r="L70" s="7">
+      <c r="J69" s="7">
         <f>A63</f>
         <v>1.4832396974191327E-4</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M69">
+        <f>B64</f>
+        <v>0.55100000000000005</v>
       </c>
     </row>
   </sheetData>
